--- a/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
+++ b/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
@@ -1599,14 +1599,14 @@
       </c>
       <c r="FP3" t="inlineStr">
         <is>
-          <t>Rheinstr. 6, 66115 Saarbrücken, 2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
+          <t>2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
         </is>
       </c>
       <c r="FQ3" t="n">
-        <v>49.2475551</v>
+        <v>49.2478207</v>
       </c>
       <c r="FR3" t="n">
-        <v>6.9599699</v>
+        <v>6.9590545</v>
       </c>
     </row>
     <row r="4">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="FQ5" t="n">
-        <v>49.2212209</v>
+        <v>49.220942</v>
       </c>
       <c r="FR5" t="n">
-        <v>6.994143</v>
+        <v>6.9966898</v>
       </c>
     </row>
     <row r="6">
@@ -4421,14 +4421,14 @@
       </c>
       <c r="FP14" t="inlineStr">
         <is>
-          <t>148, Trierer Straße, Merzig, Landkreis Merzig-Wadern, Saarland, 66663, Deutschland</t>
+          <t>148i, Trierer Straße, Merzig, Landkreis Merzig-Wadern, Saarland, 66663, Deutschland</t>
         </is>
       </c>
       <c r="FQ14" t="n">
-        <v>49.4571859</v>
+        <v>49.4590255</v>
       </c>
       <c r="FR14" t="n">
-        <v>6.6315777</v>
+        <v>6.6299114</v>
       </c>
     </row>
     <row r="15">

--- a/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
+++ b/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
@@ -1603,10 +1603,10 @@
         </is>
       </c>
       <c r="FQ3" t="n">
-        <v>49.2478207</v>
+        <v>49.2476879</v>
       </c>
       <c r="FR3" t="n">
-        <v>6.9590545</v>
+        <v>6.9595153</v>
       </c>
     </row>
     <row r="4">
@@ -2121,14 +2121,14 @@
       </c>
       <c r="FP5" t="inlineStr">
         <is>
-          <t>1, Winterberg, St. Arnual, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
+          <t>Behandlungsbau, 1, Winterberg, St. Arnual, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
         </is>
       </c>
       <c r="FQ5" t="n">
-        <v>49.220942</v>
+        <v>49.2211468</v>
       </c>
       <c r="FR5" t="n">
-        <v>6.9966898</v>
+        <v>6.9972072</v>
       </c>
     </row>
     <row r="6">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="FP7" t="inlineStr">
         <is>
-          <t>Haus 1, 10, Sonnenbergstraße, Irgenhöhe, Schönbach, Güdingen, Bezirk Halberg, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
+          <t>SHG Kliniken Sonnenberg, 10, Sonnenbergstraße, Irgenhöhe, Schönbach, Güdingen, Bezirk Halberg, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
         </is>
       </c>
       <c r="FQ7" t="n">
-        <v>49.2003929</v>
+        <v>49.2010651</v>
       </c>
       <c r="FR7" t="n">
-        <v>7.0114755</v>
+        <v>7.011138</v>
       </c>
     </row>
     <row r="8">
@@ -3643,14 +3643,14 @@
       </c>
       <c r="FP11" t="inlineStr">
         <is>
-          <t>Rheuma- Schmerzklinik, 35, In der Humes, Berg, Püttlingen, Regionalverband Saarbrücken, Saarland, 66346, Deutschland</t>
+          <t>35, In der Humes, Berg, Püttlingen, Regionalverband Saarbrücken, Saarland, 66346, Deutschland</t>
         </is>
       </c>
       <c r="FQ11" t="n">
-        <v>49.276946</v>
+        <v>49.2767351</v>
       </c>
       <c r="FR11" t="n">
-        <v>6.8701212</v>
+        <v>6.8683942</v>
       </c>
     </row>
     <row r="12">

--- a/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
+++ b/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
@@ -1599,14 +1599,14 @@
       </c>
       <c r="FP3" t="inlineStr">
         <is>
-          <t>2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
+          <t>Rheinstr. 6, 66115 Saarbrücken, 2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
         </is>
       </c>
       <c r="FQ3" t="n">
-        <v>49.2476879</v>
+        <v>49.2475551</v>
       </c>
       <c r="FR3" t="n">
-        <v>6.9595153</v>
+        <v>6.9599699</v>
       </c>
     </row>
     <row r="4">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="FP4" t="inlineStr">
         <is>
-          <t>Dr. med. Anne Benn Lembert, 76-78, Bahnhofstraße, Hauptbahnhof, St. Johann, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66111, Deutschland</t>
+          <t>Aktiv-Ortho, 76-78, Bahnhofstraße, Hauptbahnhof, St. Johann, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66111, Deutschland</t>
         </is>
       </c>
       <c r="FQ4" t="n">
-        <v>49.2370854</v>
+        <v>49.2371047</v>
       </c>
       <c r="FR4" t="n">
-        <v>6.9925905</v>
+        <v>6.9925617</v>
       </c>
     </row>
     <row r="5">
@@ -2121,14 +2121,14 @@
       </c>
       <c r="FP5" t="inlineStr">
         <is>
-          <t>Behandlungsbau, 1, Winterberg, St. Arnual, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
+          <t>1, Winterberg, St. Arnual, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
         </is>
       </c>
       <c r="FQ5" t="n">
-        <v>49.2211468</v>
+        <v>49.2209533</v>
       </c>
       <c r="FR5" t="n">
-        <v>6.9972072</v>
+        <v>6.9965189</v>
       </c>
     </row>
     <row r="6">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="FP7" t="inlineStr">
         <is>
-          <t>SHG Kliniken Sonnenberg, 10, Sonnenbergstraße, Irgenhöhe, Schönbach, Güdingen, Bezirk Halberg, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
+          <t>Haus 1, 10, Sonnenbergstraße, Irgenhöhe, Schönbach, Güdingen, Bezirk Halberg, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
         </is>
       </c>
       <c r="FQ7" t="n">
-        <v>49.2010651</v>
+        <v>49.2003929</v>
       </c>
       <c r="FR7" t="n">
-        <v>7.011138</v>
+        <v>7.0114755</v>
       </c>
     </row>
     <row r="8">
@@ -4421,14 +4421,14 @@
       </c>
       <c r="FP14" t="inlineStr">
         <is>
-          <t>148i, Trierer Straße, Merzig, Landkreis Merzig-Wadern, Saarland, 66663, Deutschland</t>
+          <t>148, Trierer Straße, Merzig, Landkreis Merzig-Wadern, Saarland, 66663, Deutschland</t>
         </is>
       </c>
       <c r="FQ14" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="FR14" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
     </row>
     <row r="15">

--- a/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
+++ b/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
@@ -1599,14 +1599,14 @@
       </c>
       <c r="FP3" t="inlineStr">
         <is>
-          <t>Rheinstr. 6, 66115 Saarbrücken, 2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
+          <t>Notarztstandort Saarbrücken Rastpfuhl 1/9, 2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
         </is>
       </c>
       <c r="FQ3" t="n">
-        <v>49.2475551</v>
+        <v>49.2486598</v>
       </c>
       <c r="FR3" t="n">
-        <v>6.9599699</v>
+        <v>6.9597177</v>
       </c>
     </row>
     <row r="4">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="FP4" t="inlineStr">
         <is>
-          <t>Aktiv-Ortho, 76-78, Bahnhofstraße, Hauptbahnhof, St. Johann, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66111, Deutschland</t>
+          <t>Dr. med. Anne Benn Lembert, 76-78, Bahnhofstraße, Hauptbahnhof, St. Johann, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66111, Deutschland</t>
         </is>
       </c>
       <c r="FQ4" t="n">
-        <v>49.2371047</v>
+        <v>49.2370854</v>
       </c>
       <c r="FR4" t="n">
-        <v>6.9925617</v>
+        <v>6.9925905</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="FQ5" t="n">
-        <v>49.2209533</v>
+        <v>49.2212209</v>
       </c>
       <c r="FR5" t="n">
-        <v>6.9965189</v>
+        <v>6.994143</v>
       </c>
     </row>
     <row r="6">

--- a/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
+++ b/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
@@ -1599,14 +1599,14 @@
       </c>
       <c r="FP3" t="inlineStr">
         <is>
-          <t>Notarztstandort Saarbrücken Rastpfuhl 1/9, 2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
+          <t>2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
         </is>
       </c>
       <c r="FQ3" t="n">
-        <v>49.2486598</v>
+        <v>49.2476879</v>
       </c>
       <c r="FR3" t="n">
-        <v>6.9597177</v>
+        <v>6.9595153</v>
       </c>
     </row>
     <row r="4">
@@ -2121,14 +2121,14 @@
       </c>
       <c r="FP5" t="inlineStr">
         <is>
-          <t>1, Winterberg, St. Arnual, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
+          <t>Behandlungsbau, 1, Winterberg, St. Arnual, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
         </is>
       </c>
       <c r="FQ5" t="n">
-        <v>49.2212209</v>
+        <v>49.2211468</v>
       </c>
       <c r="FR5" t="n">
-        <v>6.994143</v>
+        <v>6.9972072</v>
       </c>
     </row>
     <row r="6">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="FP7" t="inlineStr">
         <is>
-          <t>Haus 1, 10, Sonnenbergstraße, Irgenhöhe, Schönbach, Güdingen, Bezirk Halberg, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
+          <t>SHG Kliniken Sonnenberg, 10, Sonnenbergstraße, Irgenhöhe, Schönbach, Güdingen, Bezirk Halberg, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
         </is>
       </c>
       <c r="FQ7" t="n">
-        <v>49.2003929</v>
+        <v>49.2010651</v>
       </c>
       <c r="FR7" t="n">
-        <v>7.0114755</v>
+        <v>7.011138</v>
       </c>
     </row>
     <row r="8">
@@ -4421,14 +4421,14 @@
       </c>
       <c r="FP14" t="inlineStr">
         <is>
-          <t>148, Trierer Straße, Merzig, Landkreis Merzig-Wadern, Saarland, 66663, Deutschland</t>
+          <t>148i, Trierer Straße, Merzig, Landkreis Merzig-Wadern, Saarland, 66663, Deutschland</t>
         </is>
       </c>
       <c r="FQ14" t="n">
-        <v>49.4571859</v>
+        <v>49.4590255</v>
       </c>
       <c r="FR14" t="n">
-        <v>6.6315777</v>
+        <v>6.6299114</v>
       </c>
     </row>
     <row r="15">

--- a/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
+++ b/src/index_travel_accessibility/data/processed/saarland_hospitals_with_coords.xlsx
@@ -1599,14 +1599,14 @@
       </c>
       <c r="FP3" t="inlineStr">
         <is>
-          <t>2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
+          <t>Notarztstandort Saarbrücken Rastpfuhl 1/9, 2, Rheinstraße, Rastpfuhl, Malstatt, West, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66113, Deutschland</t>
         </is>
       </c>
       <c r="FQ3" t="n">
-        <v>49.2476879</v>
+        <v>49.2486598</v>
       </c>
       <c r="FR3" t="n">
-        <v>6.9595153</v>
+        <v>6.9597177</v>
       </c>
     </row>
     <row r="4">
@@ -2121,14 +2121,14 @@
       </c>
       <c r="FP5" t="inlineStr">
         <is>
-          <t>Behandlungsbau, 1, Winterberg, St. Arnual, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
+          <t>1, Winterberg, St. Arnual, Bezirk Mitte, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
         </is>
       </c>
       <c r="FQ5" t="n">
-        <v>49.2211468</v>
+        <v>49.2212209</v>
       </c>
       <c r="FR5" t="n">
-        <v>6.9972072</v>
+        <v>6.994143</v>
       </c>
     </row>
     <row r="6">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="FP7" t="inlineStr">
         <is>
-          <t>SHG Kliniken Sonnenberg, 10, Sonnenbergstraße, Irgenhöhe, Schönbach, Güdingen, Bezirk Halberg, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
+          <t>Haus 1, 10, Sonnenbergstraße, Irgenhöhe, Schönbach, Güdingen, Bezirk Halberg, Saarbrücken, Regionalverband Saarbrücken, Saarland, 66119, Deutschland</t>
         </is>
       </c>
       <c r="FQ7" t="n">
-        <v>49.2010651</v>
+        <v>49.2003929</v>
       </c>
       <c r="FR7" t="n">
-        <v>7.011138</v>
+        <v>7.0114755</v>
       </c>
     </row>
     <row r="8">
@@ -4421,14 +4421,14 @@
       </c>
       <c r="FP14" t="inlineStr">
         <is>
-          <t>148i, Trierer Straße, Merzig, Landkreis Merzig-Wadern, Saarland, 66663, Deutschland</t>
+          <t>148, Trierer Straße, Merzig, Landkreis Merzig-Wadern, Saarland, 66663, Deutschland</t>
         </is>
       </c>
       <c r="FQ14" t="n">
-        <v>49.4590255</v>
+        <v>49.4571859</v>
       </c>
       <c r="FR14" t="n">
-        <v>6.6299114</v>
+        <v>6.6315777</v>
       </c>
     </row>
     <row r="15">
